--- a/seven-fortress/checklist.xlsx
+++ b/seven-fortress/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/seven-fortress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96FE5A49-503F-2341-B757-F88570BFAC43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EDFA508-1E41-ED4E-91EB-DAD61B65F187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{60F0E536-BDEA-7F42-859B-DE2C0AE43A49}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -513,7 +513,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/seven-fortress/checklist.xlsx
+++ b/seven-fortress/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/seven-fortress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EDFA508-1E41-ED4E-91EB-DAD61B65F187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A558D5C-E1E5-4046-8E7B-DE2C5957D436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{60F0E536-BDEA-7F42-859B-DE2C0AE43A49}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{60F0E536-BDEA-7F42-859B-DE2C0AE43A49}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>year</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>フォーチューンの海砦（上）</t>
+  </si>
+  <si>
+    <t>box set</t>
+  </si>
+  <si>
+    <t>arsale_ice_fort_advanced.jpg</t>
+  </si>
+  <si>
+    <t>Arsale Ice Fort (Advanced)</t>
   </si>
 </sst>
 </file>
@@ -510,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CE1D2D-6843-4B41-ABA0-9BA69A6BDEEE}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -561,7 +570,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -614,9 +623,6 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
@@ -626,7 +632,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -638,7 +644,7 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -646,36 +652,39 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2002</v>
+      </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -683,16 +692,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -700,18 +709,35 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
         <v>29</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>28</v>
       </c>
     </row>

--- a/seven-fortress/checklist.xlsx
+++ b/seven-fortress/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/seven-fortress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A558D5C-E1E5-4046-8E7B-DE2C5957D436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2D6ED3-4F53-FC44-9C4D-AF5B1F68B70F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{60F0E536-BDEA-7F42-859B-DE2C0AE43A49}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>year</t>
   </si>
@@ -522,7 +522,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -623,6 +623,9 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>

--- a/seven-fortress/checklist.xlsx
+++ b/seven-fortress/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/seven-fortress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2D6ED3-4F53-FC44-9C4D-AF5B1F68B70F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA22A9EE-6DC2-2E49-A721-2D6EB40A0F1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{60F0E536-BDEA-7F42-859B-DE2C0AE43A49}"/>
   </bookViews>
@@ -143,9 +143,6 @@
     <t>フォーラの森砦</t>
   </si>
   <si>
-    <t>Fora Fortress Fort</t>
-  </si>
-  <si>
     <t>フォーチューンの海砦（下）</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>Arsale Ice Fort (Advanced)</t>
+  </si>
+  <si>
+    <t>Fora Forest Fort</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,7 +570,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -647,7 +647,7 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -661,7 +661,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -681,7 +681,7 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>

--- a/seven-fortress/checklist.xlsx
+++ b/seven-fortress/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/seven-fortress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA22A9EE-6DC2-2E49-A721-2D6EB40A0F1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02051F77-C793-514E-9172-830E6CC7BF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{60F0E536-BDEA-7F42-859B-DE2C0AE43A49}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
   <si>
     <t>year</t>
   </si>
@@ -159,13 +159,100 @@
   </si>
   <si>
     <t>Fora Forest Fort</t>
+  </si>
+  <si>
+    <t>seven_fortress_v3.jpg</t>
+  </si>
+  <si>
+    <t>セブン＝フォートレス V3</t>
+  </si>
+  <si>
+    <t>Seven Fortress V3</t>
+  </si>
+  <si>
+    <t>Enterbrain</t>
+  </si>
+  <si>
+    <t>セブン=フォートレスパワード</t>
+  </si>
+  <si>
+    <t>Seven Fortress Powered</t>
+  </si>
+  <si>
+    <t>seven_fortress_powered.jpg</t>
+  </si>
+  <si>
+    <t>エンジェルプリンセス</t>
+  </si>
+  <si>
+    <t>Angel Princess</t>
+  </si>
+  <si>
+    <t>angel_princess.jpg</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>ラース=フェリアの嵐</t>
+  </si>
+  <si>
+    <t>Lars Feria Storm</t>
+  </si>
+  <si>
+    <t>lars_feria_storm.jpg</t>
+  </si>
+  <si>
+    <t>フレイスの炎砦V3〈上〉</t>
+  </si>
+  <si>
+    <t>fraces_flame_fort_up.jpg</t>
+  </si>
+  <si>
+    <t>フレイスの炎砦V3〈下〉</t>
+  </si>
+  <si>
+    <t>Frace's Flame Fort V3 vol. 2.</t>
+  </si>
+  <si>
+    <t>Frace's Flame Fort V3 vol. 1</t>
+  </si>
+  <si>
+    <t>fraces_flame_fort_down.jpg</t>
+  </si>
+  <si>
+    <t>黒き星の皇子</t>
+  </si>
+  <si>
+    <t>Black Star Prince</t>
+  </si>
+  <si>
+    <t>black_star_prince.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ラ・アルメイアの幻砦V3&lt;上&gt; </t>
+  </si>
+  <si>
+    <t>La Almeia's Phantom Fort V3 vol. 1</t>
+  </si>
+  <si>
+    <t>phantom_fort_up.jpg</t>
+  </si>
+  <si>
+    <t>phantom_fort_down.jpg</t>
+  </si>
+  <si>
+    <t>ラ・アルメイアの幻砦V3&lt;下&gt;</t>
+  </si>
+  <si>
+    <t>La Almeia's Phantom Fort V3 vol. 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -177,6 +264,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -519,16 +612,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CE1D2D-6843-4B41-ABA0-9BA69A6BDEEE}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="32.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="33.5" customWidth="1"/>
   </cols>
@@ -744,7 +837,188 @@
         <v>28</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2005</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2006</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2007</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2004</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2004</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2004</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2007</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2007</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/seven-fortress/checklist.xlsx
+++ b/seven-fortress/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/seven-fortress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02051F77-C793-514E-9172-830E6CC7BF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37874F6A-5B05-E249-8351-F7033CCD8FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{60F0E536-BDEA-7F42-859B-DE2C0AE43A49}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="122">
   <si>
     <t>year</t>
   </si>
@@ -246,6 +246,159 @@
   </si>
   <si>
     <t>La Almeia's Phantom Fort V3 vol. 2</t>
+  </si>
+  <si>
+    <t>seven_fortress_mobius.jpg</t>
+  </si>
+  <si>
+    <t>セブン=フォートレス Mobius</t>
+  </si>
+  <si>
+    <t>Seven Fortress Mobius</t>
+  </si>
+  <si>
+    <t>ラース=フェリア</t>
+  </si>
+  <si>
+    <t>Lars Felia</t>
+  </si>
+  <si>
+    <t>lars_felia.jpg</t>
+  </si>
+  <si>
+    <t>エル=ネイシア</t>
+  </si>
+  <si>
+    <t>El Neysia</t>
+  </si>
+  <si>
+    <t>el_neysia.jpg</t>
+  </si>
+  <si>
+    <t>el_flare.jpg</t>
+  </si>
+  <si>
+    <t>El Flare</t>
+  </si>
+  <si>
+    <t>エルフレア</t>
+  </si>
+  <si>
+    <t>エルスゴーラ</t>
+  </si>
+  <si>
+    <t>Elsgoala</t>
+  </si>
+  <si>
+    <t>elsgoala.jpg</t>
+  </si>
+  <si>
+    <t>elclam.jpg</t>
+  </si>
+  <si>
+    <t>El Clam</t>
+  </si>
+  <si>
+    <t>エルクラム</t>
+  </si>
+  <si>
+    <t>エルキュリア</t>
+  </si>
+  <si>
+    <t>Elqulia</t>
+  </si>
+  <si>
+    <t>elqulia.jpg</t>
+  </si>
+  <si>
+    <t>Rusty Arne</t>
+  </si>
+  <si>
+    <t>rusty_arne.jpg</t>
+  </si>
+  <si>
+    <t>ラスティアーン</t>
+  </si>
+  <si>
+    <t>far_the_earth.jpg</t>
+  </si>
+  <si>
+    <t>ファー・ジ・アース</t>
+  </si>
+  <si>
+    <t>Far the Earth</t>
+  </si>
+  <si>
+    <t>cross_world.jpg</t>
+  </si>
+  <si>
+    <t>クロスワールド</t>
+  </si>
+  <si>
+    <t>Cross World</t>
+  </si>
+  <si>
+    <t>上級データブック</t>
+  </si>
+  <si>
+    <t>Advanced Data Book</t>
+  </si>
+  <si>
+    <t>advanced_data_book.jpg</t>
+  </si>
+  <si>
+    <t>operation_overlord.jpg</t>
+  </si>
+  <si>
+    <t>オペレーション・オーバーロード</t>
+  </si>
+  <si>
+    <t>Operation Overlord</t>
+  </si>
+  <si>
+    <t>シェローティアの空砦 1 惨劇の冥魔王</t>
+  </si>
+  <si>
+    <t>Sherotia's Sky Fort 1 Tragedy of the Dark Demon King</t>
+  </si>
+  <si>
+    <t>sherotia_sky_fort.jpg</t>
+  </si>
+  <si>
+    <t>シェローティアの空砦 (2) 天より来たる破滅</t>
+  </si>
+  <si>
+    <t>Sherotia's Sky Fort (2) The Ruin Coming from Heaven</t>
+  </si>
+  <si>
+    <t>sherotia_sky_fort2.jpg</t>
+  </si>
+  <si>
+    <t>シェローティアの空砦 (3) 死線に踊る道化者</t>
+  </si>
+  <si>
+    <t>Sherotia's Sky Fort (3) A clown dancing to the deadline</t>
+  </si>
+  <si>
+    <t>sherotia_sky_fort3.jpg</t>
+  </si>
+  <si>
+    <t>シェローティアの空砦 (4)七宝珠、覚醒</t>
+  </si>
+  <si>
+    <t>Sherotia's Sky Fort (4) Cloisonne, Awakening</t>
+  </si>
+  <si>
+    <t>sherotia_sky_fort4.jpg</t>
+  </si>
+  <si>
+    <t>sherotia_sky_fort5.jpg</t>
+  </si>
+  <si>
+    <t>シェローティアの空砦 (5)The End of Time</t>
+  </si>
+  <si>
+    <t>Sherotia Sky Fort (5) The End of Time</t>
   </si>
 </sst>
 </file>
@@ -612,16 +765,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CE1D2D-6843-4B41-ABA0-9BA69A6BDEEE}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C20"/>
+      <selection activeCell="C7" sqref="A1:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="32.83203125" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="2" max="2" width="44.1640625" customWidth="1"/>
+    <col min="3" max="3" width="77.83203125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="33.5" customWidth="1"/>
   </cols>
@@ -668,39 +821,39 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -708,39 +861,39 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -748,19 +901,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -768,70 +921,79 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2000</v>
+      </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2001</v>
+      </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2002</v>
+      </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
@@ -859,122 +1021,122 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
         <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1017,7 +1179,350 @@
         <v>28</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2008</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2008</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2008</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2008</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2008</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2008</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2009</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2009</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2009</v>
+      </c>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2009</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2010</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2010</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2010</v>
+      </c>
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2011</v>
+      </c>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2011</v>
+      </c>
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2012</v>
+      </c>
+      <c r="B36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2013</v>
+      </c>
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F37">
+    <sortCondition ref="A2:A37"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/seven-fortress/checklist.xlsx
+++ b/seven-fortress/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/seven-fortress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37874F6A-5B05-E249-8351-F7033CCD8FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3A526F0-D992-CD42-8D4C-D9A12561AA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{60F0E536-BDEA-7F42-859B-DE2C0AE43A49}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="137">
   <si>
     <t>year</t>
   </si>
@@ -399,6 +399,51 @@
   </si>
   <si>
     <t>Sherotia Sky Fort (5) The End of Time</t>
+  </si>
+  <si>
+    <t>ヘブンズゲート</t>
+  </si>
+  <si>
+    <t>Heaven's Gate</t>
+  </si>
+  <si>
+    <t>heavens_gate.jpg</t>
+  </si>
+  <si>
+    <t>アルセイルの氷砦(V3 Edition)</t>
+  </si>
+  <si>
+    <t>Fujimi Shobo</t>
+  </si>
+  <si>
+    <t>Arsail's Ice Fort (V3 Edition)</t>
+  </si>
+  <si>
+    <t>arsail_ice_fort_replay.jpg</t>
+  </si>
+  <si>
+    <t>フォーチューンの海砦(V3 Edition)〈上〉</t>
+  </si>
+  <si>
+    <t>Fortune Sea Fort (V3 Edition) vol. 1</t>
+  </si>
+  <si>
+    <t>fortune_sea_fort_replay_vol1.jpg</t>
+  </si>
+  <si>
+    <t>フォーチューンの海砦(V3 Edition)〈下〉</t>
+  </si>
+  <si>
+    <t>Fortune Sea Fort (V3 Edition) vol. 2</t>
+  </si>
+  <si>
+    <t>fortune_sea_fort_replay_vol2.jpg</t>
+  </si>
+  <si>
+    <t>リーンの闇砦(V3 Edition)</t>
+  </si>
+  <si>
+    <t>lean_dark_fort_replay.jpg</t>
   </si>
 </sst>
 </file>
@@ -765,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CE1D2D-6843-4B41-ABA0-9BA69A6BDEEE}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:F37"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B25" sqref="A1:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1021,19 +1066,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
@@ -1044,16 +1089,16 @@
         <v>2004</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
         <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
@@ -1064,16 +1109,16 @@
         <v>2004</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
         <v>28</v>
@@ -1081,82 +1126,79 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1164,99 +1206,99 @@
         <v>2007</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
         <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1264,19 +1306,19 @@
         <v>2008</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1284,36 +1326,36 @@
         <v>2008</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
         <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
         <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s">
         <v>18</v>
@@ -1321,19 +1363,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
         <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
@@ -1341,19 +1383,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
         <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="F29" t="s">
         <v>18</v>
@@ -1361,39 +1403,39 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
         <v>18</v>
@@ -1401,19 +1443,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F32" t="s">
         <v>18</v>
@@ -1421,107 +1463,207 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
         <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s">
         <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
         <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
         <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="F36" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
+        <v>2010</v>
+      </c>
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2011</v>
+      </c>
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2011</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2011</v>
+      </c>
+      <c r="B40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2012</v>
+      </c>
+      <c r="B41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>2013</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B42" t="s">
         <v>120</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C42" t="s">
         <v>121</v>
       </c>
-      <c r="D37" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" t="s">
         <v>119</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F42" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F37">
-    <sortCondition ref="A2:A37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F42">
+    <sortCondition ref="A2:A42"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/seven-fortress/checklist.xlsx
+++ b/seven-fortress/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/seven-fortress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3A526F0-D992-CD42-8D4C-D9A12561AA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1527E377-19CC-7745-8F98-A287D058EFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{60F0E536-BDEA-7F42-859B-DE2C0AE43A49}"/>
   </bookViews>
@@ -428,22 +428,22 @@
     <t>Fortune Sea Fort (V3 Edition) vol. 1</t>
   </si>
   <si>
-    <t>fortune_sea_fort_replay_vol1.jpg</t>
-  </si>
-  <si>
     <t>フォーチューンの海砦(V3 Edition)〈下〉</t>
   </si>
   <si>
     <t>Fortune Sea Fort (V3 Edition) vol. 2</t>
   </si>
   <si>
-    <t>fortune_sea_fort_replay_vol2.jpg</t>
-  </si>
-  <si>
     <t>リーンの闇砦(V3 Edition)</t>
   </si>
   <si>
     <t>lean_dark_fort_replay.jpg</t>
+  </si>
+  <si>
+    <t>fortune_sea_fort_replay1.jpg</t>
+  </si>
+  <si>
+    <t>fortune_sea_fort_replay2.jpg</t>
   </si>
 </sst>
 </file>
@@ -813,7 +813,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B25" sqref="A1:F42"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1149,13 +1149,13 @@
         <v>2004</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D17" t="s">
         <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F17" t="s">
         <v>28</v>
@@ -1275,7 +1275,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F23" t="s">
         <v>28</v>
@@ -1286,16 +1286,16 @@
         <v>2007</v>
       </c>
       <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" t="s">
         <v>132</v>
-      </c>
-      <c r="C24" t="s">
-        <v>133</v>
       </c>
       <c r="D24" t="s">
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F24" t="s">
         <v>28</v>
